--- a/data/income_statement/3digits/total/412_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/412_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>412-Construction of residential and non-residential buildings</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>412-Construction of residential and non-residential buildings</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>48253012.44221</v>
+        <v>48253051.30904999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>49667141.24383</v>
+        <v>49682276.58891001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>64764904.20743001</v>
+        <v>64828029.15486</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>78818557.92236</v>
+        <v>79300131.51349001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>92242993.48272</v>
+        <v>93450835.86488999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>109503040.49561</v>
+        <v>112446984.69131</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>117636746.93149</v>
+        <v>127681947.79997</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>156435340.78679</v>
+        <v>156633692.81845</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>200294061.75392</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>239110362.81106</v>
+        <v>240581469.51392</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>242955270.2682</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>249471690.63206</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>261556298.243</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>45758689.97916</v>
+        <v>45758726.72916</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>46710055.69942</v>
+        <v>46724923.70671999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>59772618.56484</v>
+        <v>59835601.51744001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>73262883.44179001</v>
+        <v>73736941.85627</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>85766664.76899</v>
+        <v>86924127.79708</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>102765003.41745</v>
+        <v>105492928.8951</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>111529364.49129</v>
+        <v>121202319.47957</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>148213089.78332</v>
+        <v>148406447.01419</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>188046774.72049</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>225629280.4162</v>
+        <v>227081137.32931</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>226816507.6059</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>233238907.27038</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>246940782.053</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1639975.77067</v>
@@ -1034,76 +950,86 @@
         <v>2024086.50836</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>3645234.01596</v>
+        <v>3645307.00568</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>4300140.46237</v>
+        <v>4301787.71115</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>4802363.3725</v>
+        <v>4838783.27309</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>4823337.83968</v>
+        <v>4945354.41527</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>3878943.93118</v>
+        <v>4063239.76238</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>5156128.811810001</v>
+        <v>5158317.14704</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>8379893.70924</v>
+        <v>8379893.709239999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>9188310.58997</v>
+        <v>9196965.04965</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>10026914.41865</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>10050843.89387</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>9952593.631999999</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>854346.6923799999</v>
+        <v>854348.8092200001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>932999.03605</v>
+        <v>933266.3738299999</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>1347051.62663</v>
+        <v>1347120.63174</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>1255534.0182</v>
+        <v>1261401.94607</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1673965.34123</v>
+        <v>1687924.79472</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1914699.23848</v>
+        <v>2008701.38094</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>2228438.50902</v>
+        <v>2416388.55802</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>3066122.19166</v>
+        <v>3068928.65722</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>3867393.324190001</v>
+        <v>3867393.32419</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>4292771.80489</v>
+        <v>4303367.13496</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>6111848.24365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>6181939.467809999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>4662922.558</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>165640.32361</v>
@@ -1115,73 +1041,83 @@
         <v>191880.89427</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>279236.49346</v>
+        <v>280180.9694</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>395587.44021</v>
+        <v>399734.75437</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>808842.64122</v>
+        <v>829869.02323</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1828771.13481</v>
+        <v>1862288.75942</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1027194.5811</v>
+        <v>1027825.9019</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>1416494.9565</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1605429.24615</v>
+        <v>1607369.27848</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1552318.92208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1564660.77874</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2533358.792</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>118220.23514</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>95642.53598</v>
+        <v>95642.53597999999</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>142631.27224</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>223424.80676</v>
+        <v>224367.6727</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>339985.45333</v>
+        <v>343927.20919</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>713443.30327</v>
+        <v>734467.30525</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1692320.7758</v>
+        <v>1722946.54046</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>841423.59728</v>
+        <v>842026.1431600001</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>1171711.97972</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1218759.94515</v>
+        <v>1220661.09451</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1249296.19871</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1260013.28701</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>2159642.04</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>33878.22184000001</v>
@@ -1193,34 +1129,39 @@
         <v>35338.50889</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>41192.98958000001</v>
+        <v>41192.98958</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>39930.4824</v>
+        <v>40136.04070000001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>75790.31015</v>
+        <v>75790.92074</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>104641.96268</v>
+        <v>106988.54811</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>130973.1517</v>
+        <v>131001.15542</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>189501.35607</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>198444.52817</v>
+        <v>198446.50544</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>175725.04138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>177473.76162</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>241255.55</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>13541.86663</v>
@@ -1232,112 +1173,127 @@
         <v>13911.11314</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>14618.69712</v>
+        <v>14620.30712</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>15671.50448</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>19609.0278</v>
+        <v>19610.79724</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>31808.39633</v>
+        <v>32353.67085</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>54797.83212000001</v>
+        <v>54798.60331999999</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>55281.62071</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>188224.77283</v>
+        <v>188261.67853</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>127297.68199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>127173.73011</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>132461.202</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>48087372.1186</v>
+        <v>48087410.98544</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>49538663.47113001</v>
+        <v>49553798.81621</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>64573023.31315999</v>
+        <v>64636148.26058999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>78539321.4289</v>
+        <v>79019950.54409</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>91847406.04251</v>
+        <v>93051101.11052001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>108694197.85439</v>
+        <v>111617115.66808</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>115807975.79668</v>
+        <v>125819659.04055</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>155408146.20569</v>
+        <v>155605866.91655</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>198877566.79742</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>237504933.56491</v>
+        <v>238974100.23544</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>241402951.34612</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>247907029.85332</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>259022939.451</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>41821265.86085</v>
+        <v>41821308.2114</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>42770354.12227</v>
+        <v>42784691.16913</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>55280026.74539</v>
+        <v>55350783.65426</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>68150297.80814999</v>
+        <v>68604250.49441001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>80566664.60609999</v>
+        <v>81650115.95008999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>96389048.21193001</v>
+        <v>99281539.77161001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>100902969.45567</v>
+        <v>110211125.24242</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>137441051.93456</v>
+        <v>137626467.70352</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>174774409.65428</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>210156254.30412</v>
+        <v>211569189.55871</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>208469324.81608</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>214546612.13428</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>224939956.146</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>10710016.83541</v>
@@ -1346,118 +1302,133 @@
         <v>10378935.45088</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>14785699.88836</v>
+        <v>14812476.36366</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>20306147.20176</v>
+        <v>20364915.50945</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>25206808.18734</v>
+        <v>25707543.22045</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>31134567.68842</v>
+        <v>32502873.4034</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>34529098.23246001</v>
+        <v>36593271.15881</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>48372157.64476001</v>
+        <v>48449924.20130999</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>60385824.51475</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>75637413.10489999</v>
+        <v>75790678.96944</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>72282048.30723</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>73783647.77540001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>68298082.095</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>8884751.328600001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>9987866.98718</v>
+        <v>9994072.1976</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>13310179.80774</v>
+        <v>13335499.1266</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>15433127.7913</v>
+        <v>15574805.60954</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>18338406.58874</v>
+        <v>18415597.27663</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>18061687.2573</v>
+        <v>18296826.54893</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>21357139.42765</v>
+        <v>22423525.80706001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>30806345.90366</v>
+        <v>30820445.00567</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>40175573.24824</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>43254888.97749</v>
+        <v>43570222.58259</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>43214927.43277001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>44766425.26568</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>55453545.781</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>21899490.42958</v>
+        <v>21899532.78013</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>21972879.40145</v>
+        <v>21981011.23789</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>26557049.11072</v>
+        <v>26575710.22543</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>31147420.95199</v>
+        <v>31400708.47957</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>36086011.97804</v>
+        <v>36574108.73744</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>44872469.26192001</v>
+        <v>46052848.83449001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>43897593.23123001</v>
+        <v>49981429.57537001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>56783118.09138</v>
+        <v>56867088.34012999</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>72474197.73216</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>89079945.52386001</v>
+        <v>90023322.78792</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>90465929.25011</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>93470373.71989</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>98581764.487</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>327007.26726</v>
+        <v>327007.2672600001</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>430672.28276</v>
@@ -1466,112 +1437,127 @@
         <v>627097.9385699999</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1263601.8631</v>
+        <v>1263820.89585</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>935437.8519799999</v>
+        <v>952866.7155699999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>2320324.00429</v>
+        <v>2428990.98479</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1119138.56433</v>
+        <v>1212898.70118</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1479430.29476</v>
+        <v>1489010.15641</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>1738814.15913</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>2184006.69787</v>
+        <v>2184965.21876</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>2506419.82597</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2526165.37331</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>2606563.783</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>6266106.25775</v>
+        <v>6266102.77404</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>6768309.348859999</v>
+        <v>6769107.64708</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>9292996.567770001</v>
+        <v>9285364.60633</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>10389023.62075</v>
+        <v>10415700.04968</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>11280741.43641</v>
+        <v>11400985.16043</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>12305149.64246</v>
+        <v>12335575.89647</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>14905006.34101</v>
+        <v>15608533.79813</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>17967094.27113</v>
+        <v>17979399.21303</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>24103157.14314</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>27348679.26079</v>
+        <v>27404910.67673</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>32933626.53004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>33360417.71904</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>34082983.305</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>3411004.59912</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>3940633.35094</v>
+        <v>3942882.98038</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>5214521.747540001</v>
+        <v>5217640.81106</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>5662022.221890001</v>
+        <v>5679361.72292</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>6293086.99668</v>
+        <v>6355464.0259</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>7293133.199719999</v>
+        <v>7431262.72949</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>8217149.98666</v>
+        <v>8880031.085419999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>10555231.91469</v>
+        <v>10586606.99666</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>12895590.10086</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>15229424.36224</v>
+        <v>15288554.35773</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>16338318.68087</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>16580609.24805</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>17827448.893</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>13273.15167</v>
@@ -1589,229 +1575,259 @@
         <v>18012.18554</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>20748.07294</v>
+        <v>20749.07294</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>15653.9903</v>
+        <v>15762.46642</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>31023.6683</v>
+        <v>31034.30728</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>24881.15595</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>25411.61486</v>
+        <v>25413.65973</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>34431.73443</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>34620.33238</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>15725.565</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>428216.90997</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>508357.9173499999</v>
+        <v>508363.04285</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>836411.8865599999</v>
+        <v>836479.1638099999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>816828.0431499999</v>
+        <v>817808.84646</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>855912.3914300001</v>
+        <v>866505.73484</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>986403.9986599998</v>
+        <v>1016882.11107</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1036927.98228</v>
+        <v>1160977.27167</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1392285.17915</v>
+        <v>1393308.99977</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>1782954.82591</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>2138103.8325</v>
+        <v>2146270.36789</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>2322611.67949</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2352413.67005</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>2703097.616</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>2969514.53748</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>3400097.58685</v>
+        <v>3402342.09079</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>4367588.07999</v>
+        <v>4370639.866260001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>4832390.570739999</v>
+        <v>4848749.26846</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>5419162.41971</v>
+        <v>5470946.10552</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>6285981.12812</v>
+        <v>6393631.54548</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>7164568.014080001</v>
+        <v>7703291.34733</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>9131923.06724</v>
+        <v>9162263.689609999</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>11087754.119</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>13065908.91488</v>
+        <v>13116870.33011</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>13981275.26695</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>14193575.24562</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>15108625.712</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>2855101.65863</v>
+        <v>2855098.17492</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>2827675.99792</v>
+        <v>2826224.6667</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>4078474.82023</v>
+        <v>4067723.79527</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>4727001.39886</v>
+        <v>4736338.326760001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>4987654.43973</v>
+        <v>5045521.13453</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>5012016.44274</v>
+        <v>4904313.166979999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>6687856.354350001</v>
+        <v>6728502.712710001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>7411862.356439999</v>
+        <v>7392792.216370001</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>11207567.04228</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>12119254.89855</v>
+        <v>12116356.319</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>16595307.84917</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>16779808.47099</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>16255534.412</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>2981370.01263</v>
+        <v>2981374.90434</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>3421559.51013</v>
+        <v>3428202.04428</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>4466400.94128</v>
+        <v>4472026.28965</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>4137457.77191</v>
+        <v>4149016.56341</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>6082105.59013</v>
+        <v>6344150.81483</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>8429278.624749999</v>
+        <v>8769284.8685</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>10927341.97851</v>
+        <v>13518195.08118</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>14493053.84592</v>
+        <v>14530591.27738</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>18816067.92736</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>41374801.5153</v>
+        <v>41420871.60515</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>24773782.36883</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>24871054.51123</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>33324488.586</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>284121.9887100001</v>
+        <v>284121.98871</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>293944.4009400001</v>
+        <v>293944.40094</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>289253.02872</v>
+        <v>289432.86311</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>354462.01658</v>
+        <v>355581.09298</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>537324.3255</v>
+        <v>537648.34515</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>542986.9486499999</v>
+        <v>545346.14354</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>712668.9716699999</v>
+        <v>795653.19128</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>853736.94435</v>
+        <v>853736.9443499999</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>844049.18079</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>1292515.48658</v>
+        <v>1293482.98658</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1328209.78786</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1329419.7726</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>1238369.44</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>345590.6629</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>178978.27025</v>
+        <v>185078.03395</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>190416.50453</v>
@@ -1820,13 +1836,13 @@
         <v>364543.50239</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>655583.55628</v>
+        <v>670204.87236</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>1158109.94895</v>
+        <v>1174114.84607</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>627120.0549</v>
+        <v>773804.12077</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>790389.4484100001</v>
@@ -1838,73 +1854,83 @@
         <v>4017203.33605</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2181594.26907</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>2190424.7814</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>2551663.036</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>433004.2698599999</v>
+        <v>433009.16157</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>418769.40838</v>
+        <v>419170.1810699999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>573105.91573</v>
+        <v>573283.58884</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>588224.3760999999</v>
+        <v>590920.78538</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>629130.44891</v>
+        <v>648674.6415199999</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>959297.8620399999</v>
+        <v>1000779.86221</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1128911.35179</v>
+        <v>1408409.72184</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1507171.51189</v>
+        <v>1511435.50631</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>2132800.44853</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>3194051.6256</v>
+        <v>3195295.72857</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>3255465.47721</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>3276759.64538</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>2703486.774</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>7959.980890000001</v>
+        <v>7959.980889999999</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>6990.99885</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>4968.90916</v>
+        <v>4968.909159999999</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>5503.4076</v>
+        <v>5504.4726</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>7178.4819</v>
+        <v>7178.481900000001</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>7103.45482</v>
+        <v>7933.45482</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>20786.29943</v>
+        <v>20821.13767</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>17356.9156</v>
@@ -1913,16 +1939,21 @@
         <v>30294.39046</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>69521.89624</v>
+        <v>69572.35158</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>42077.67803</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>42118.36065</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>48206.03</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>77591.38585000001</v>
@@ -1934,19 +1965,19 @@
         <v>237902.07069</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>219389.96753</v>
+        <v>219390.25424</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>220187.25705</v>
+        <v>220255.35142</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>286387.17081</v>
+        <v>286399.12113</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>31097.24159</v>
+        <v>32450.05993</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>63893.99731</v>
+        <v>63933.99831</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>23556.83298</v>
@@ -1955,91 +1986,106 @@
         <v>43459.42367</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>105676.98898</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>105976.46155</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>61169.493</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>67467.91155000002</v>
+        <v>67467.91154999999</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>91725.40101</v>
+        <v>91725.40277</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>203692.2791</v>
+        <v>203692.39482</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>201262.42479</v>
+        <v>201269.46591</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>494284.09906</v>
+        <v>494292.33151</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>85183.81834</v>
+        <v>85519.10681</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>183935.42937</v>
+        <v>316303.11056</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>187011.36507</v>
+        <v>187072.67394</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>498627.47402</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>357035.33204</v>
+        <v>357036.17538</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>688031.0957400001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>688112.36869</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>582974.58</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>1289929.90926</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1475098.42169</v>
+        <v>1475152.32204</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>2271425.25413</v>
+        <v>2276429.07989</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1629959.29194</v>
+        <v>1637312.38441</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2265791.10899</v>
+        <v>2456880.10723</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>3863698.63247</v>
+        <v>4105568.98519</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>6485272.211949999</v>
+        <v>8129539.00933</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>8729480.85613</v>
+        <v>8743228.845309999</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>11087198.44363</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>28472239.03756</v>
+        <v>28500361.44498</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>12264066.70581</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>12320602.22589</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>22489214.752</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>38989.59707</v>
@@ -2051,16 +2097,16 @@
         <v>44706.23545</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>65010.30612000001</v>
+        <v>65045.45426000001</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>93793.95439000001</v>
+        <v>93806.96562</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>82327.95138</v>
+        <v>82327.95138000001</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>206798.92849</v>
+        <v>207175.55875</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>197112.93133</v>
@@ -2069,16 +2115,21 @@
         <v>308535.48601</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>237045.81651</v>
+        <v>237051.60054</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>192880.91272</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>192842.88104</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>129338.539</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>6812.66508</v>
@@ -2099,163 +2150,183 @@
         <v>1708.15034</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>2638.77162</v>
+        <v>2649.33731</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>4611.58421</v>
+        <v>5362.294529999999</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>6262.38547</v>
+        <v>6262.385470000001</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>5089.67022</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>5223.990559999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>6810.580089999999</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>13142.147</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>429901.64146</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>805810.3164599999</v>
+        <v>805898.41211</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>645688.8182900001</v>
+        <v>645952.7176800001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>707226.8751899999</v>
+        <v>707573.5475700001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1173837.0249</v>
+        <v>1210214.38497</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1442474.68695</v>
+        <v>1479587.24701</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1528112.7177</v>
+        <v>1831389.83374</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2142288.29162</v>
+        <v>2160961.71929</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>2645135.90635</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>3686639.89083</v>
+        <v>3702318.88758</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>4710555.462850001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>4717987.43394</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>3506923.795</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>1763518.58792</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1666752.02667</v>
+        <v>1667785.10626</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>3057981.2411</v>
+        <v>3062737.2166</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1967931.56911</v>
+        <v>1972033.2367</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>3758000.448</v>
+        <v>4083148.43997</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>4422905.69589</v>
+        <v>4687795.902319999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>9242626.478910001</v>
+        <v>11151104.08209</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>12348416.62075</v>
+        <v>12365544.23224</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>15211821.63405</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>39833516.91292</v>
+        <v>39868666.7546</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>17496409.10231</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>17557434.72116</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>30223316.042</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>11123.74907</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>9381.190470000001</v>
+        <v>9381.19047</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>9516.829730000001</v>
+        <v>9516.829729999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>13128.25821</v>
+        <v>13155.01869</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>13954.52369</v>
+        <v>14045.36212</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>19754.21997</v>
+        <v>19882.14632</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>16282.00139</v>
+        <v>16641.48563</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>27664.86296</v>
+        <v>27666.91053</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>33641.25292</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>41278.15009</v>
+        <v>41306.30316</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>75728.46920000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>76119.70880000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>67135.643</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>97655.7804</v>
+        <v>97655.78039999999</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>50367.34539</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>70081.55100000001</v>
+        <v>70116.55858</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>108905.58357</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>75355.19433</v>
+        <v>104204.90818</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>108082.18318</v>
+        <v>108369.51854</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>213141.15612</v>
+        <v>234780.39218</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>186455.05257</v>
@@ -2264,16 +2335,21 @@
         <v>263297.60739</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>351865.662</v>
+        <v>351866.0216</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>464581.8894700001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>465120.08562</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>434856.222</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>24452.25333</v>
@@ -2285,16 +2361,16 @@
         <v>34638.78282</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>27336.97862</v>
+        <v>27338.92376</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>67724.98327000001</v>
+        <v>67724.98327</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>28388.32384</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>70380.69553</v>
+        <v>117122.24136</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>71182.24811</v>
@@ -2306,52 +2382,62 @@
         <v>192313.0078</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>108693.05796</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>108708.42397</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>86108.478</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>1198225.89304</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1333467.40146</v>
+        <v>1333506.15256</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2604609.41768</v>
+        <v>2608438.61632</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1291857.69625</v>
+        <v>1295342.5789</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2800710.87047</v>
+        <v>3094288.73898</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>3661587.74557</v>
+        <v>3894868.62014</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>8025194.631169999</v>
+        <v>9722546.05632</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>10997886.79067</v>
+        <v>11013104.46556</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>12488844.18275</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>35183528.47778999</v>
+        <v>35217527.73885</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>14706695.64661</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>14755619.49121</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>27570044.804</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>32456.43056</v>
@@ -2369,10 +2455,10 @@
         <v>95606.78062000001</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>94808.65133999998</v>
+        <v>94808.65134</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>220325.27118</v>
+        <v>220582.3277</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>256116.13006</v>
@@ -2384,13 +2470,18 @@
         <v>256731.98781</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>170931.25592</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>170911.41973</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>127486.071</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>4355.645759999999</v>
@@ -2408,10 +2499,10 @@
         <v>2378.17435</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>1088.18824</v>
+        <v>1088.18834</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>4738.41292</v>
+        <v>4744.775360000001</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>1506.49543</v>
@@ -2423,130 +2514,150 @@
         <v>2400.84284</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>982.74328</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>994.26796</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>1837.381</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>395248.83576</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>198840.92666</v>
+        <v>199835.25515</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>293099.08985</v>
+        <v>293990.85913</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>449105.06561</v>
+        <v>449693.14493</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>702269.9212699999</v>
+        <v>704899.49245</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>509196.38375</v>
+        <v>540390.4537999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>692564.3106</v>
+        <v>834686.80354</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>807605.0409500001</v>
+        <v>809512.92998</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>1789924.52689</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>3805398.78459</v>
+        <v>3806520.85254</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1968796.03987</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1979961.32387</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1935847.443</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>1285424.57614</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1184713.11026</v>
+        <v>1187362.78233</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1602519.27106</v>
+        <v>1605702.03609</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1879224.89882</v>
+        <v>1889800.00113</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>2278117.06245</v>
+        <v>2345867.55594</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>3356772.57545</v>
+        <v>3437385.08351</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>4519603.485060001</v>
+        <v>5301225.74588</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>6629599.387210001</v>
+        <v>6655579.42899</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>8772292.684439998</v>
+        <v>8772292.68444</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>16920426.93904</v>
+        <v>16925407.09222</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>15943876.92699</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>15998896.76293</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>19039947.214</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>1031938.22833</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>953682.7534800001</v>
+        <v>956332.4255499999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1312351.68072</v>
+        <v>1315534.44575</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1579204.26517</v>
+        <v>1589667.61232</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1927990.82641</v>
+        <v>1989810.72839</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>2951923.75673</v>
+        <v>3030148.42321</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>3954587.71807</v>
+        <v>4706785.246739999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>5996994.09974</v>
+        <v>6022758.196059999</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>7793254.05369</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>14481266.59463</v>
+        <v>14484840.7696</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>14347259.3472</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>14398816.17572</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>16334245.766</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>253486.34781</v>
@@ -2558,112 +2669,127 @@
         <v>290167.59034</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>300020.63365</v>
+        <v>300132.38881</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>350126.23604</v>
+        <v>356056.8275499999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>404848.81872</v>
+        <v>407236.6603</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>565015.76699</v>
+        <v>594440.49914</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>632605.28747</v>
+        <v>632821.2329299999</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>979038.63075</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>2439160.34441</v>
+        <v>2440566.32262</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1596617.57979</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1600080.58721</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2705701.448</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>2787528.5072</v>
+        <v>2787529.9152</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>3397770.37112</v>
+        <v>3399278.82239</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>3884375.24935</v>
+        <v>3871310.832229999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>5017302.70284</v>
+        <v>5023521.65234</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>5033642.51941</v>
+        <v>4960655.95345</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>5661616.79615</v>
+        <v>5548417.049649999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>3852968.368890001</v>
+        <v>3794367.96592</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>2926900.1944</v>
+        <v>2902259.83252</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>6039520.651149999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-3259887.43811</v>
+        <v>-3256845.92267</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>7928804.1887</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>8094531.498130001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>316759.742</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>642125.50928</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1006170.79738</v>
+        <v>1006241.11516</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>927555.56433</v>
+        <v>927824.6588999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1646874.09646</v>
+        <v>1652444.71184</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1119093.21047</v>
+        <v>1147368.11032</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1941757.15369</v>
+        <v>2038106.5759</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1676732.29488</v>
+        <v>1867211.56007</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2646984.11309</v>
+        <v>2660117.20976</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>3401250.56436</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>4031202.00311</v>
+        <v>4035891.25215</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>3932553.20222</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>3956229.22145</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>5907425.117</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>90964.45791999999</v>
@@ -2675,343 +2801,386 @@
         <v>126623.32528</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>116991.9834</v>
+        <v>118038.20014</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>180718.25676</v>
+        <v>181009.86695</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>83854.43629</v>
+        <v>101154.32992</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>101800.55391</v>
+        <v>118141.47641</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>164115.55897</v>
+        <v>164204.88243</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>335351.7981</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>242647.55212</v>
+        <v>242730.32232</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>246387.86442</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>247011.07168</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>317186.496</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>551161.05136</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>933171.2184700001</v>
+        <v>933241.53625</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>800932.23905</v>
+        <v>801201.3336200002</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1529882.11306</v>
+        <v>1534406.5117</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>938374.95371</v>
+        <v>966358.24337</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1857902.7174</v>
+        <v>1936952.24598</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1574931.74097</v>
+        <v>1749070.08366</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2482868.55412</v>
+        <v>2495912.32733</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>3065898.76626</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>3788554.45099</v>
+        <v>3793160.92983</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>3686165.3378</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>3709218.14977</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>5590238.621</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>746863.4749200001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>778232.2060199999</v>
+        <v>778508.1732000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>3697522.42265</v>
+        <v>3697898.77054</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>1293920.57018</v>
+        <v>1309591.76128</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1218101.99457</v>
+        <v>1273328.73672</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>3110692.18266</v>
+        <v>3157161.75303</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>2044179.3078</v>
+        <v>2310086.264419999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>4728930.46694</v>
+        <v>4732918.71113</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>3790391.97245</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>4798633.120300001</v>
+        <v>4812456.04711</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>5420166.411479999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>5446951.12026</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>4829208.678</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>33960.15172</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>26738.74694</v>
+        <v>26763.85025</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>32297.70304</v>
+        <v>32309.47168</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>15992.58998</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>16454.00201</v>
+        <v>16501.15741</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>20603.62937</v>
+        <v>22161.53819</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>37493.49465</v>
+        <v>38508.90066</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>54847.76819</v>
+        <v>54911.91138000001</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>45186.14991000001</v>
+        <v>45186.14990999999</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>44296.86956</v>
+        <v>44304.7364</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>45466.56031</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>45557.36353</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>67035.56299999999</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>147628.3855</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>151298.04494</v>
+        <v>151400.66843</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>166656.53849</v>
+        <v>166846.71696</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>194131.36778</v>
+        <v>201579.95398</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>260800.63065</v>
+        <v>265491.14386</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>213414.45498</v>
+        <v>231886.67631</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>281373.96041</v>
+        <v>316281.01585</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>503832.5565</v>
+        <v>504529.13569</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>507802.89929</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>460048.13823</v>
+        <v>462764.1049</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>511969.03013</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>516889.8349199999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>628233.313</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>565274.9377</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>600195.41414</v>
+        <v>600343.65452</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>3498568.18112</v>
+        <v>3498742.5819</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>1083796.61242</v>
+        <v>1092019.21732</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>940847.3619100001</v>
+        <v>991336.4354499999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>2876674.09831</v>
+        <v>2903113.53853</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1725311.85274</v>
+        <v>1955296.34791</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>4170250.14225</v>
+        <v>4173477.66406</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>3237402.92325</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>4294288.11251</v>
+        <v>4305387.205809999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>4862730.82104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>4884503.921809999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>4133939.802</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>2682790.54156</v>
+        <v>2682791.94956</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>3625708.96248</v>
+        <v>3627011.76435</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1114408.39103</v>
+        <v>1101236.72059</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>5370256.229120001</v>
+        <v>5366374.602899999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>4934633.73531</v>
+        <v>4834695.32705</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>4492681.76718</v>
+        <v>4429361.872520001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>3485521.35597</v>
+        <v>3351493.26157</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>844953.8405500002</v>
+        <v>829458.3311500001</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>5650379.243059999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-4027318.555299999</v>
+        <v>-4033410.71763</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>6441190.979440001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>6603809.599320001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1394976.181</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>598296.08787</v>
+        <v>598296.36947</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>630785.74911</v>
+        <v>631168.45201</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>820727.8453800001</v>
+        <v>820941.8199400001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>995416.4127000001</v>
+        <v>998392.6828800001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1017676.36504</v>
+        <v>1028153.92211</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1101383.1094</v>
+        <v>1119364.60359</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1371884.04171</v>
+        <v>1466364.05122</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1687055.74413</v>
+        <v>1688522.8057</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>1841033.39845</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>2037912.84903</v>
+        <v>2044274.67625</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2510218.33117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2577177.0384</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>3102185.062</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>2084494.45369</v>
+        <v>2084495.58009</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>2994923.21337</v>
+        <v>2995843.31234</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>293680.54565</v>
+        <v>280294.90065</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>4374839.81642</v>
+        <v>4367981.92002</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>3916957.370269999</v>
+        <v>3806541.40494</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>3391298.65778</v>
+        <v>3309997.26893</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>2113637.31426</v>
+        <v>1885129.21035</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-842101.9035800002</v>
+        <v>-859064.4745499999</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>3809345.84461</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-6065231.404330001</v>
+        <v>-6077685.39388</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>3930972.64827</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>4026632.56092</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-1707208.881</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>51977</v>
+        <v>51978</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>54542</v>
+        <v>54549</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>58552</v>
+        <v>58585</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>58796</v>
+        <v>58971</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>58323</v>
+        <v>58613</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>60894</v>
+        <v>61397</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>65926</v>
+        <v>67327</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>72818</v>
+        <v>73137</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>79400</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>81221</v>
+        <v>83484</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>80247</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>84019</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>88865</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>